--- a/12/DeterminantsNotes.xlsx
+++ b/12/DeterminantsNotes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>1)</t>
   </si>
@@ -29,6 +29,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">1.4 ) </t>
     </r>
     <r>
@@ -153,6 +160,126 @@
   <si>
     <t>1.13.17)</t>
   </si>
+  <si>
+    <t>1.14)</t>
+  </si>
+  <si>
+    <t>Properties of Ddeterminant</t>
+  </si>
+  <si>
+    <t>1.14.1)</t>
+  </si>
+  <si>
+    <t>The value of determinant remains unchanged if its rows and columns are interchanged (rows--&gt;colum and column--&gt;rows)</t>
+  </si>
+  <si>
+    <t>1.14.2)</t>
+  </si>
+  <si>
+    <t>1.14.3)</t>
+  </si>
+  <si>
+    <t>1.14.4)</t>
+  </si>
+  <si>
+    <t>1.14.5)</t>
+  </si>
+  <si>
+    <t>1.14.6)</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>Please note, if a row is transformed once, it should not be modified again !!</t>
+  </si>
+  <si>
+    <t>*** For area, consider only positive value as area can not be -ve</t>
+  </si>
+  <si>
+    <t>2) Minors and cofactors</t>
+  </si>
+  <si>
+    <t>Every element of Determinant has a minor</t>
+  </si>
+  <si>
+    <t>2.1)</t>
+  </si>
+  <si>
+    <t>Minor of 2by2 determinant</t>
+  </si>
+  <si>
+    <t>if you have to find minor of element a11, then don't consider row 1 and row 2 elements.  So a22 is left, which is minor</t>
+  </si>
+  <si>
+    <t>minor of a11 is a22</t>
+  </si>
+  <si>
+    <t>2.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minor of a 3by3 determinant is a determinat of 2by2 order </t>
+  </si>
+  <si>
+    <t>minor of a1 is a 2by2 determinat ,we can find value of that 2by2 determinant</t>
+  </si>
+  <si>
+    <t>2.3)</t>
+  </si>
+  <si>
+    <t>Cofactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reason for cofactor </t>
+  </si>
+  <si>
+    <t>Determinant is sum of (elements of row* their cofactor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5) </t>
+  </si>
+  <si>
+    <t>2.6)</t>
+  </si>
+  <si>
+    <t>2.7)</t>
+  </si>
+  <si>
+    <t>Adjoint of a Matrix</t>
+  </si>
+  <si>
+    <t>We can find inverse of a matrix with the help of Adjoint of a Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8) </t>
+  </si>
+  <si>
+    <t>Example of Adjoint</t>
+  </si>
+  <si>
+    <t>2.9)</t>
+  </si>
+  <si>
+    <t>Singular and Non sigular Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10) </t>
+  </si>
+  <si>
+    <t>Theorem</t>
+  </si>
+  <si>
+    <t>2.11)</t>
+  </si>
+  <si>
+    <t>2.12)</t>
+  </si>
+  <si>
+    <t>2.13)</t>
+  </si>
 </sst>
 </file>
 
@@ -164,7 +291,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,7 +307,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -327,13 +454,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -640,19 +760,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,7 +781,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,10 +905,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1554,6 +1675,1056 @@
         <a:xfrm>
           <a:off x="3600450" y="30861000"/>
           <a:ext cx="4867275" cy="2418715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>594995</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="34622740"/>
+          <a:ext cx="1547495" cy="2343785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>389255</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400300" y="37299900"/>
+          <a:ext cx="2189480" cy="3086100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>553085</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="39058850"/>
+          <a:ext cx="1296035" cy="336550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400300" y="41186100"/>
+          <a:ext cx="2222500" cy="3333750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>564515</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495550" y="45157390"/>
+          <a:ext cx="2269490" cy="3343910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>210185</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="47095410"/>
+          <a:ext cx="1410335" cy="424815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>36830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>545465</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="48995330"/>
+          <a:ext cx="2355215" cy="3249295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>578485</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8820150" y="52606575"/>
+          <a:ext cx="2559685" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="53308250"/>
+          <a:ext cx="2178050" cy="1717675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>579755</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="57473215"/>
+          <a:ext cx="5799455" cy="3696335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219710</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="62108080"/>
+          <a:ext cx="2096135" cy="2785745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>143510</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4410075" y="66807080"/>
+          <a:ext cx="1134110" cy="925195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333875" y="68788280"/>
+          <a:ext cx="1266825" cy="1125220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="69656325"/>
+          <a:ext cx="1231900" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>378</xdr:row>
+      <xdr:rowOff>36830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>386</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371975" y="72045830"/>
+          <a:ext cx="1336675" cy="1563370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>128905</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="74999850"/>
+          <a:ext cx="5348605" cy="2724150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>413</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>419</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="78684120"/>
+          <a:ext cx="5419725" cy="1268730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>426</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>544830</xdr:colOff>
+      <xdr:row>436</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="81210150"/>
+          <a:ext cx="4411980" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>442</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>169545</xdr:colOff>
+      <xdr:row>450</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="84220050"/>
+          <a:ext cx="1483995" cy="1685925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>454</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>29210</xdr:colOff>
+      <xdr:row>465</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4410075" y="86657815"/>
+          <a:ext cx="2219960" cy="2077085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581660</xdr:colOff>
+      <xdr:row>482</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="90175080"/>
+          <a:ext cx="3648710" cy="1674495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>501</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="92763340"/>
+          <a:ext cx="5322570" cy="2791460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>508</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>522</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="96793050"/>
+          <a:ext cx="4783455" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>528</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>172085</xdr:colOff>
+      <xdr:row>543</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="100768150"/>
+          <a:ext cx="5858510" cy="2673350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>547</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>563</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="104298750"/>
+          <a:ext cx="5372100" cy="3139440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1827,10 +2998,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K162"/>
+  <dimension ref="A1:L547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="R172" sqref="R172"/>
+    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="P556" sqref="P556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2018,6 +3189,190 @@
         <v>41</v>
       </c>
     </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>42</v>
+      </c>
+      <c r="B180" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="181" spans="3:4">
+      <c r="C181" t="s">
+        <v>44</v>
+      </c>
+      <c r="D181" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3">
+      <c r="C197" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3">
+      <c r="C218" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3">
+      <c r="C239" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3">
+      <c r="C259" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3">
+      <c r="C280" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="298" spans="3:5">
+      <c r="C298" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3">
+      <c r="C302" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="326" spans="3:11">
+      <c r="C326" t="s">
+        <v>25</v>
+      </c>
+      <c r="K326" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="348" spans="5:5">
+      <c r="E348" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="349" spans="3:9">
+      <c r="C349" t="s">
+        <v>56</v>
+      </c>
+      <c r="E349" t="s">
+        <v>57</v>
+      </c>
+      <c r="I349" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="354" spans="12:12">
+      <c r="L354" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="359" spans="3:5">
+      <c r="C359" t="s">
+        <v>60</v>
+      </c>
+      <c r="E359" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="365" spans="12:12">
+      <c r="L365" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="376" spans="3:5">
+      <c r="C376" t="s">
+        <v>63</v>
+      </c>
+      <c r="E376" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="392" spans="3:5">
+      <c r="C392" t="s">
+        <v>65</v>
+      </c>
+      <c r="E392" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="393" spans="7:7">
+      <c r="G393" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3">
+      <c r="C414" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="426" spans="3:3">
+      <c r="C426" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="442" spans="3:4">
+      <c r="C442" t="s">
+        <v>70</v>
+      </c>
+      <c r="D442" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="444" spans="4:4">
+      <c r="D444" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="455" spans="3:4">
+      <c r="C455" t="s">
+        <v>73</v>
+      </c>
+      <c r="D455" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="473" spans="3:4">
+      <c r="C473" t="s">
+        <v>75</v>
+      </c>
+      <c r="D473" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="488" spans="3:4">
+      <c r="C488" t="s">
+        <v>77</v>
+      </c>
+      <c r="D488" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="507" spans="3:3">
+      <c r="C507" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="527" spans="3:3">
+      <c r="C527" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="547" spans="3:3">
+      <c r="C547" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
